--- a/template/图书信息表（模板）.xlsx
+++ b/template/图书信息表（模板）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/phpstudy/WWW/Books_Manager/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AABAA0-33DB-3648-8FA0-987D6216913D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCACB96-4DCC-4347-896D-61585193006A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,6 +92,7 @@
         <b/>
         <sz val="18"/>
         <rFont val="方正小标宋简体"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -104,7 +105,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>../upload/bookCover/book-default.gif</t>
+    <t>../../upload/bookCover/book-default.gif</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -128,30 +129,35 @@
       <b/>
       <sz val="16"/>
       <name val="方正小标宋简体"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <name val="方正小标宋简体"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="仿宋_GB2312"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -602,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
